--- a/IO_s5.xlsx
+++ b/IO_s5.xlsx
@@ -125,7 +125,7 @@
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D131" activeCellId="0" sqref="D131"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -150,18 +150,6 @@
         <f aca="false">E1-1</f>
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -180,18 +168,6 @@
         <f aca="false">E2-1</f>
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -210,18 +186,6 @@
         <f aca="false">E3-1</f>
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -240,18 +204,6 @@
         <f aca="false">E4-1</f>
         <v>3</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -270,18 +222,6 @@
         <f aca="false">E5-1</f>
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -300,18 +240,6 @@
         <f aca="false">E6-1</f>
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -330,18 +258,6 @@
         <f aca="false">E7-1</f>
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -360,18 +276,6 @@
         <f aca="false">E8-1</f>
         <v>3</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -390,18 +294,6 @@
         <f aca="false">E9-1</f>
         <v>3</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -420,18 +312,6 @@
         <f aca="false">E10-1</f>
         <v>3</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -450,18 +330,6 @@
         <f aca="false">E11-1</f>
         <v>3</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -480,18 +348,6 @@
         <f aca="false">E12-1</f>
         <v>3</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -510,18 +366,6 @@
         <f aca="false">E13-1</f>
         <v>3</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -540,18 +384,6 @@
         <f aca="false">E14-1</f>
         <v>3</v>
       </c>
-      <c r="J14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -570,18 +402,6 @@
         <f aca="false">E15-1</f>
         <v>3</v>
       </c>
-      <c r="J15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -600,18 +420,6 @@
         <f aca="false">E16-1</f>
         <v>3</v>
       </c>
-      <c r="J16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -630,18 +438,6 @@
         <f aca="false">E17-1</f>
         <v>3</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -660,18 +456,6 @@
         <f aca="false">E18-1</f>
         <v>3</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -690,18 +474,6 @@
         <f aca="false">E19-1</f>
         <v>3</v>
       </c>
-      <c r="J19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -720,18 +492,6 @@
         <f aca="false">E20-1</f>
         <v>3</v>
       </c>
-      <c r="J20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -750,18 +510,6 @@
         <f aca="false">E21-1</f>
         <v>3</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -780,18 +528,6 @@
         <f aca="false">E22-1</f>
         <v>3</v>
       </c>
-      <c r="J22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -810,18 +546,6 @@
         <f aca="false">E23-1</f>
         <v>3</v>
       </c>
-      <c r="J23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -840,18 +564,6 @@
         <f aca="false">E24-1</f>
         <v>3</v>
       </c>
-      <c r="J24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -870,18 +582,6 @@
         <f aca="false">E25-1</f>
         <v>3</v>
       </c>
-      <c r="J25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -900,18 +600,6 @@
         <f aca="false">E26-1</f>
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -929,18 +617,6 @@
       <c r="F27" s="1" t="n">
         <f aca="false">E27-1</f>
         <v>2</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
